--- a/results/evaluation_chd_49_noisy_0.2.xlsx
+++ b/results/evaluation_chd_49_noisy_0.2.xlsx
@@ -507,10 +507,10 @@
         <v>24</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6613</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02341</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -533,10 +533,10 @@
         <v>25</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.11173</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00741</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -559,10 +559,10 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.63898</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.03039</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -588,10 +588,10 @@
         <v>24</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.66099</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01711</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -617,10 +617,10 @@
         <v>25</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.09909999999999999</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00162</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -646,10 +646,10 @@
         <v>26</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.58021</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02044</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -672,10 +672,10 @@
         <v>24</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.66491</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.02342</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -698,10 +698,10 @@
         <v>25</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.11352</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00561</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -724,10 +724,10 @@
         <v>26</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.64206</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0294</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -753,10 +753,10 @@
         <v>24</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.65559</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -782,10 +782,10 @@
         <v>25</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08468000000000001</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.00525</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -811,10 +811,10 @@
         <v>26</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.56225</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.02434</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -837,10 +837,10 @@
         <v>24</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.63428</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02757</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -863,10 +863,10 @@
         <v>25</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.11353</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.009209999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -889,10 +889,10 @@
         <v>26</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.62646</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.03038</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -918,10 +918,10 @@
         <v>24</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.63519</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.02907</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -947,10 +947,10 @@
         <v>25</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.12073</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00562</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -976,10 +976,10 @@
         <v>26</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.62357</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.03014</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1002,10 +1002,10 @@
         <v>24</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.63398</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02667</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1028,10 +1028,10 @@
         <v>25</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.11353</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.009209999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1054,10 +1054,10 @@
         <v>26</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.62639</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02981</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1083,10 +1083,10 @@
         <v>24</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.63459</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.02907</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1112,10 +1112,10 @@
         <v>25</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.12073</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.00562</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1141,10 +1141,10 @@
         <v>26</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.62275</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.03028</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1167,10 +1167,10 @@
         <v>24</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.61322</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.00471</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1193,10 +1193,10 @@
         <v>25</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.04864</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.00532</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1219,10 +1219,10 @@
         <v>26</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.59951</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.00472</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1248,10 +1248,10 @@
         <v>24</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.6333299999999999</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.00276</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1277,10 +1277,10 @@
         <v>25</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.07926999999999999</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.00706</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1306,10 +1306,10 @@
         <v>26</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.56026</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1332,10 +1332,10 @@
         <v>24</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.61382</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.00351</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1358,10 +1358,10 @@
         <v>25</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>0.05224</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.00891</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1384,10 +1384,10 @@
         <v>26</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.60131</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.00345</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.6267200000000001</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.00338</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1442,10 +1442,10 @@
         <v>25</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.08468000000000001</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.00525</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1471,10 +1471,10 @@
         <v>26</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>0.53571</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1497,10 +1497,10 @@
         <v>24</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.5943000000000001</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.00257</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1523,10 +1523,10 @@
         <v>25</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>0.05224</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.00891</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1549,10 +1549,10 @@
         <v>26</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.58105</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.00569</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1578,10 +1578,10 @@
         <v>24</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>0.60362</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1607,10 +1607,10 @@
         <v>25</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>0.05766</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>0.00371</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1636,10 +1636,10 @@
         <v>26</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>0.56299</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>0.01022</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1662,10 +1662,10 @@
         <v>24</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>0.5952</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.00107</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1688,10 +1688,10 @@
         <v>25</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.05224</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>0.00891</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1714,10 +1714,10 @@
         <v>26</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.58203</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>0.00471</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1743,10 +1743,10 @@
         <v>24</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.60392</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1772,10 +1772,10 @@
         <v>25</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.05766</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.00371</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1801,10 +1801,10 @@
         <v>26</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>0.56143</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>0.00805</v>
       </c>
     </row>
   </sheetData>
